--- a/biology/Zoologie/Grand_Tinamou/Grand_Tinamou.xlsx
+++ b/biology/Zoologie/Grand_Tinamou/Grand_Tinamou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tinamus major
 Le Grand Tinamou (Tinamus major) est une espèce d'oiseau de la famille des Tinamidae, vivant en Amérique du Sud et en Amérique centrale. C'est un paléognathe, donc un cousin des autruches et émeus actuels.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau corpulent mesure 43 cm de long et pèse 1 100 g. Au-dessus, son plumage est de couleur gris-brun barré et tacheté de noir, ce qui est un bon camouflage dans les sous-bois. Ses plumes sont  plus claires au niveau de l'abdomen. Il présente une petite tête gris bleu à noirâtre avec de grands yeux, un bec un peu tombant, un cou fin, une queue courte et des pattes gris-bleu. Il n'y a pas de dimorphisme sexuel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau corpulent mesure 43 cm de long et pèse 1 100 g. Au-dessus, son plumage est de couleur gris-brun barré et tacheté de noir, ce qui est un bon camouflage dans les sous-bois. Ses plumes sont  plus claires au niveau de l'abdomen. Il présente une petite tête gris bleu à noirâtre avec de grands yeux, un bec un peu tombant, un cou fin, une queue courte et des pattes gris-bleu. Il n'y a pas de dimorphisme sexuel.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend du nord de la Bolivie et du Brésil (Amazonie et régions voisines) jusqu'au sud du Mexique. Cet oiseau est commun au Costa Rica, dans les basses terres des versants atlantique et pacifique méridional jusqu'à 1 700 m d'altitude.
 Le grand tinamou vit dans les forêts pluviales, préférablement denses.
@@ -575,13 +591,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand tinamou est un oiseau assez terrestre. Il est capable de voler mais n'est pas très habile, et préfère marcher la plupart du temps. Il est solitaire et très timide, et tente généralement de s'enfuir le plus discrètement possible. Le mâle émet un chant mélodieux en crescendo.
-Alimentation
-Cet oiseau préfère se nourrit principalement de baies, de fruits et de graines. Il peut également se nourrir de petits animaux, comme les grenouilles, les vers de terre et les insectes.
-Reproduction
-Il niche préférablement entre janvier et juillet, bien que l'on puisse trouver des nids toute l'année dans certaines régions. C'est une espèce polygynandre, où le mâle assure seul le couvage et l'élevage des petits, qui dure aux alentours de 3 semaines après l'éclosion. Le nid est généralement rudimentaire, constitué de branchages au sein de racines d'arbres. Les œufs du grand tinamou sont plutôt grands, avec une coquille brillante de couleur bleue ou violette.
 </t>
         </is>
       </c>
@@ -607,10 +621,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau préfère se nourrit principalement de baies, de fruits et de graines. Il peut également se nourrir de petits animaux, comme les grenouilles, les vers de terre et les insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grand_Tinamou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Tinamou</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il niche préférablement entre janvier et juillet, bien que l'on puisse trouver des nids toute l'année dans certaines régions. C'est une espèce polygynandre, où le mâle assure seul le couvage et l'élevage des petits, qui dure aux alentours de 3 semaines après l'éclosion. Le nid est généralement rudimentaire, constitué de branchages au sein de racines d'arbres. Les œufs du grand tinamou sont plutôt grands, avec une coquille brillante de couleur bleue ou violette.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand_Tinamou</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Tinamou</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, cette espèce est constituée des douze sous-espèces suivantes (ordre phylogénique) :
 Tinamus major robustus Sclater, PL &amp; Salvin, 1868	;
